--- a/data/long_dif/P30-Edad-long_dif.xlsx
+++ b/data/long_dif/P30-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,48; 32,65</t>
+          <t>17,32; 40,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,15; 44,46</t>
+          <t>23,44; 44,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 26,16</t>
+          <t>10,5; 33,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 39,62</t>
+          <t>11,54; 38,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 26,32</t>
+          <t>10,53; 25,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 38,68</t>
+          <t>22,01; 37,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 32,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 48,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,5; 29,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 39,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 27,84</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 38,54</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>46,12%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,0; 57,97</t>
+          <t>31,71; 53,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,76; 59,1</t>
+          <t>35,75; 57,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,43; 61,51</t>
+          <t>41,42; 69,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 54,91</t>
+          <t>26,62; 58,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,38; 56,44</t>
+          <t>40,47; 61,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,78; 54,48</t>
+          <t>37,79; 55,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35,86; 56,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 54,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 55,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38,62; 53,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41,48; 59,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29,5; 51,67</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 45,14</t>
+          <t>21,02; 41,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 29,75</t>
+          <t>11,75; 29,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,77; 39,85</t>
+          <t>14,3; 38,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 31,62</t>
+          <t>19,69; 53,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,33; 37,57</t>
+          <t>22,92; 42,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 27,75</t>
+          <t>16,84; 31,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 41,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 39,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 38,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 28,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,05; 37,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 43,32</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,12; 38,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 29,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 34,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 28,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 30,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>53,05%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>26,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,34; 58,85</t>
+          <t>15,66; 43,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,23; 63,26</t>
+          <t>14,09; 30,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 57,04</t>
+          <t>20,91; 59,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,97; 60,81</t>
+          <t>8,78; 38,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,89; 54,86</t>
+          <t>11,46; 24,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,69; 58,62</t>
+          <t>20,19; 34,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 33,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 44,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 31,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,1; 29,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 46,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 38,63</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>53,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46,7%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37,2%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,53; 45,02</t>
+          <t>31,67; 57,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,69; 37,94</t>
+          <t>40,22; 62,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,35; 45,52</t>
+          <t>18,32; 42,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,89; 26,93</t>
+          <t>19,67; 54,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,79; 42,37</t>
+          <t>39,42; 57,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,2; 30,31</t>
+          <t>45,14; 61,59</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38,15; 56,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28,76; 49,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37,79; 54,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45,06; 59,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 45,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,76; 48,85</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>19,34%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 33,36</t>
+          <t>17,71; 49,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 28,35</t>
+          <t>20,24; 37,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,72; 22,85</t>
+          <t>20,92; 51,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,01; 29,52</t>
+          <t>23,09; 67,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,73; 25,53</t>
+          <t>26,2; 43,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 27,38</t>
+          <t>13,9; 26,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 36,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 36,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 44,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,09; 30,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 41,69</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 51,36</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,93; 55,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,84; 64,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,31; 63,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,01; 59,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,82; 56,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,13; 59,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,76; 39,29</t>
+          <t>16,34; 31,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,78; 29,61</t>
+          <t>16,24; 28,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 31,31</t>
+          <t>19,59; 34,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,19; 27,57</t>
+          <t>18,25; 36,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,67; 32,87</t>
+          <t>13,17; 23,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,45; 26,63</t>
+          <t>19,4; 29,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 30,57</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 33,64</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 24,66</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 27,49</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 30,11</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 32,82</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52,87%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50,42%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51,83%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>54,41%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48,85%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,04; 36,95</t>
+          <t>36,66; 56,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,33; 29,51</t>
+          <t>47,35; 63,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,06; 21,24</t>
+          <t>35,85; 53,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,55</t>
+          <t>33,66; 54,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,07; 26,42</t>
+          <t>50,34; 63,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,63; 24,72</t>
+          <t>47,29; 59,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 59,33</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>41,09; 59,96</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>46,08; 57,76</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>49,49; 59,12</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 53,59</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>39,91; 54,37</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>39,6; 55,12</t>
+          <t>23,12; 41,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>48,39; 62,8</t>
+          <t>16,36; 30,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>53,75; 66,56</t>
+          <t>20,68; 38,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52,51; 63,87</t>
+          <t>21,08; 39,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>48,81; 59,52</t>
+          <t>19,86; 31,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>52,49; 61,76</t>
+          <t>17,21; 27,65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 29,09</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 33,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 33,52</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,9; 26,71</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 31,99</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 34,1</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,83; 31,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,87; 29,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,28; 30,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,3; 27,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,24; 29,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,91%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,74; 25,93</t>
+          <t>21,63; 37,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>14,23; 24,97</t>
+          <t>16,21; 30,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,47; 23,46</t>
+          <t>18,07; 31,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,26; 27,27</t>
+          <t>15,05; 35,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,74</t>
+          <t>10,66; 20,97</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,68</t>
+          <t>15,38; 24,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 31,42</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 35,05</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 26,55</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 25,37</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 29,49</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 32,5</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>58,84%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>54,0%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>56,93%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>50,47%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>51,75; 68,47</t>
+          <t>39,78; 55,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>50,63; 64,29</t>
+          <t>47,75; 61,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>55,28; 71,65</t>
+          <t>38,21; 56,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>53,06; 67,06</t>
+          <t>43,24; 64,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>55,41; 67,52</t>
+          <t>53,12; 65,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>53,77; 63,85</t>
+          <t>52,75; 64,7</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>45,68; 58,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>41,94; 59,9</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>48,44; 59,42</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>52,23; 61,56</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>44,01; 55,21</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>45,67; 59,53</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15,08; 28,78</t>
+          <t>18,33; 30,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>18,05; 30,04</t>
+          <t>18,01; 30,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,76; 26,65</t>
+          <t>19,81; 42,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,4; 24,54</t>
+          <t>14,5; 31,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>16,03; 26,05</t>
+          <t>20,06; 31,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,61</t>
+          <t>16,22; 26,1</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 28,37</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 31,5</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 29,09</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>19,29; 26,25</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>20,66; 34,02</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>17,13; 28,82</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>9,41; 22,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>14,16; 31,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>8,85; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12,56; 24,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>63,33%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>46,74; 70,81</t>
+          <t>13,03; 25,58</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>50,6; 68,19</t>
+          <t>14,18; 25,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>54,6; 71,75</t>
+          <t>16,16; 29,52</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>59,76; 75,04</t>
+          <t>18,64; 36,62</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>54,68; 68,73</t>
+          <t>11,91; 23,6</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>57,84; 69,83</t>
+          <t>16,41; 27,5</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 33,73</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>20,06; 37,14</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>13,95; 23,07</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 25,24</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 28,57</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>22,21; 34,47</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>60,38%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>56,69%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>55,96%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>58,54%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>51,39%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,97; 38,95</t>
+          <t>52,18; 68,69</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,6; 26,45</t>
+          <t>49,18; 63,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>16,23; 30,85</t>
+          <t>51,0; 68,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,87; 21,57</t>
+          <t>36,26; 56,9</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,03; 31,09</t>
+          <t>54,22; 69,62</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>12,92; 21,83</t>
+          <t>54,01; 67,23</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>46,94; 66,56</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>46,5; 65,41</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>55,0; 66,54</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>53,01; 63,18</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>50,63; 64,3</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>43,95; 57,84</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,6</t>
+          <t>15,1; 28,17</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>19,63; 26,08</t>
+          <t>18,36; 30,62</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,86</t>
+          <t>11,98; 26,79</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>20,52; 25,42</t>
+          <t>17,26; 37,12</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>17,32; 21,56</t>
+          <t>14,76; 27,1</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,92</t>
+          <t>13,07; 23,94</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 29,04</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 23,82</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 25,56</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 25,54</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 26,13</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>15,72; 27,31</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>46,24; 54,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>50,75; 58,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>54,31; 61,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>54,5; 60,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>51,46; 56,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>53,4; 58,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>23,09; 30,96</t>
+          <t>10,67; 24,03</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,87</t>
+          <t>14,03; 30,18</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>23,11; 29,06</t>
+          <t>11,75; 32,25</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>17,37; 22,2</t>
+          <t>12,71; 32,5</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>24,05; 28,97</t>
+          <t>8,63; 20,78</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>19,6; 23,22</t>
+          <t>12,32; 23,87</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 31,72</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 30,57</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 20,38</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 23,98</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 27,81</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 27,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>59,03%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>60,29%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>62,36%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>52,61%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>63,41%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>66,13%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>55,05%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>65,88%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>61,51%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>63,68%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>58,24%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>60,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 69,03</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>51,65; 68,78</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>49,42; 72,78</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 65,66</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>54,99; 72,03</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>58,35; 72,81</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 64,9</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>51,03; 77,77</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>55,02; 68,01</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>57,89; 69,15</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>50,01; 66,05</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>50,8; 69,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 35,43</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 26,68</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 28,94</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 37,01</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 30,75</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 23,74</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 35,27</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 29,17</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 29,35</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 22,72</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 28,74</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 28,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>24,06%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 27,82</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 25,87</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 31,38</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 29,13</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 18,74</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 25,0</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 26,54</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 30,61</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 21,77</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 24,83</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,43</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 28,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>50,07%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>57,61%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>52,01%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>53,94%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>55,67%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>50,61%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>45,55; 54,13</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>50,54; 57,98</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>43,56; 53,65</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>39,93; 51,49</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>54,11; 60,67</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>54,23; 59,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>48,5; 55,52</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>46,74; 56,24</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 56,68</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>53,35; 57,76</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>47,51; 53,73</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>44,93; 52,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>30,17%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 31,44</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 26,0</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>22,02; 30,77</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 36,73</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 29,39</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 22,57</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 27,98</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 25,31</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>24,05; 28,9</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 23,6</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 28,43</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 29,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P30-Edad-long_dif.xlsx
+++ b/data/long_dif/P30-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
